--- a/src/test/resources/shopperstackproject.xlsx
+++ b/src/test/resources/shopperstackproject.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\selenium\ShopperStackApp\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88FD6C0-F46B-4A20-A5F0-5511F99DE772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="3552" yWindow="420" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Testcase_ID</t>
+  </si>
+  <si>
+    <t>TestCase_Name</t>
+  </si>
+  <si>
+    <t>InputsRequired</t>
+  </si>
+  <si>
+    <t>Test_Data</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>SS_TC_BWF_001</t>
+  </si>
+  <si>
+    <t>Shopper Registration</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,6 +110,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7206B5D9-C622-442D-86F5-6B2DF79F6539}" name="Table2" displayName="Table2" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{7206B5D9-C622-442D-86F5-6B2DF79F6539}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9FB758CA-8723-43E9-96AB-551B39018A28}" name="Testcase_ID"/>
+    <tableColumn id="2" xr3:uid="{88DD4481-BC23-4AF3-AE45-AE74424D011C}" name="TestCase_Name"/>
+    <tableColumn id="3" xr3:uid="{1D859913-B2AA-4034-B1FE-07D93210B25C}" name="InputsRequired"/>
+    <tableColumn id="4" xr3:uid="{873D2B58-5314-456B-B063-4D871AA9AB43}" name="Test_Data"/>
+    <tableColumn id="5" xr3:uid="{D93A6CF2-0363-448C-8DAD-F95C448A22A4}" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +388,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>